--- a/3-Linux/常用/Linux常用命令.xlsx
+++ b/3-Linux/常用/Linux常用命令.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\总结\linux\常用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\3-Linux\常用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB1A95-F906-42DB-B824-0AE9102CB582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645482AD-A791-42CF-A8B0-2D3556882C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vim" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
   <si>
     <t xml:space="preserve">ESC   </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,6 +963,22 @@
   </si>
   <si>
     <t>行的开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除 光标开始位置到 光标行结束位置的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:set fileencoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件的编码或者：file 1.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1631,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1793,20 +1809,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" t="s">
-        <v>203</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/3-Linux/常用/Linux常用命令.xlsx
+++ b/3-Linux/常用/Linux常用命令.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\3-Linux\常用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645482AD-A791-42CF-A8B0-2D3556882C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794AB4BB-BE8A-4892-896B-F4A6931F2E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="210">
   <si>
     <t xml:space="preserve">ESC   </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,6 +979,10 @@
   </si>
   <si>
     <t>显示文件的编码或者：file 1.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1366,6 +1370,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1650,7 +1658,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1749,19 +1757,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="57" t="s">
         <v>199</v>
       </c>
     </row>

--- a/3-Linux/常用/Linux常用命令.xlsx
+++ b/3-Linux/常用/Linux常用命令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\3-Linux\常用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794AB4BB-BE8A-4892-896B-F4A6931F2E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAE0668-250C-4C44-A674-546E2C57435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
   <si>
     <t xml:space="preserve">ESC   </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>大G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到指定行号，n为行号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,6 +1333,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1370,10 +1382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1390,6 +1398,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2529535</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77329B1D-7B89-4D42-AD14-C18CB89287BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120140" y="4975860"/>
+          <a:ext cx="2438095" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1655,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1758,10 +1815,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -1769,10 +1826,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="42" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1850,12 +1907,21 @@
       </c>
       <c r="B26" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1908,7 +1974,7 @@
       <c r="E2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1923,7 +1989,7 @@
       <c r="E3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1941,10 +2007,10 @@
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="15"/>
@@ -1952,8 +2018,8 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
       <c r="D6" s="28" t="s">
         <v>122</v>
       </c>
@@ -1963,8 +2029,8 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="D7" s="15" t="s">
         <v>39</v>
       </c>
@@ -2049,7 +2115,7 @@
       <c r="E13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="43" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2060,7 +2126,7 @@
       <c r="E14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="17" t="s">
@@ -2092,10 +2158,10 @@
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="51"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F22" s="19"/>
@@ -2152,10 +2218,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -2214,7 +2280,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2222,79 +2288,79 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="7" t="s">
         <v>79</v>
       </c>
@@ -2368,7 +2434,7 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
@@ -2385,7 +2451,7 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="54"/>
       <c r="D5" t="s">
         <v>181</v>
       </c>
@@ -2400,7 +2466,7 @@
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="54"/>
       <c r="D6" t="s">
         <v>183</v>
       </c>
@@ -2411,22 +2477,22 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2434,10 +2500,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -2446,7 +2512,7 @@
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2457,14 +2523,14 @@
       <c r="B18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="50"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">

--- a/3-Linux/常用/Linux常用命令.xlsx
+++ b/3-Linux/常用/Linux常用命令.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\3-Linux\常用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAE0668-250C-4C44-A674-546E2C57435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8181507-0559-4250-8F06-E99D6A6C3196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vim" sheetId="1" r:id="rId1"/>
@@ -624,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>du -smh ./*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看文件夹大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,6 +987,10 @@
   </si>
   <si>
     <t>跳转到指定行号，n为行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du -sh ./*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1714,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -1822,15 +1822,15 @@
         <v>20</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>198</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,26 +1839,26 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,42 +1879,42 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
         <v>205</v>
-      </c>
-      <c r="B26" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" t="s">
         <v>210</v>
-      </c>
-      <c r="B28" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF37D9D-2535-4797-8906-6B3BC18253C8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1999,10 +1999,10 @@
         <v>87</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>195</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -2079,10 +2079,10 @@
         <v>118</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -2144,22 +2144,22 @@
     </row>
     <row r="18" spans="4:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>168</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>169</v>
       </c>
       <c r="F18" s="19"/>
     </row>
     <row r="19" spans="4:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="4:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E21" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="51"/>
     </row>
@@ -2171,18 +2171,18 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2208,7 @@
   <dimension ref="B1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2421,10 +2421,10 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,10 +2438,10 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
         <v>179</v>
-      </c>
-      <c r="E4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,10 +2453,10 @@
       </c>
       <c r="C5" s="54"/>
       <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
         <v>181</v>
-      </c>
-      <c r="E5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,22 +2527,22 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2567,7 +2567,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2590,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,45 +2603,45 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2659,7 @@
   <dimension ref="A2:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2670,131 +2670,131 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
         <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="33"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="33"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="33"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="33"/>
     </row>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
         <v>148</v>
-      </c>
-      <c r="B26" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/3-Linux/常用/Linux常用命令.xlsx
+++ b/3-Linux/常用/Linux常用命令.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\3-Linux\常用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8181507-0559-4250-8F06-E99D6A6C3196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0296A519-AC96-498E-A252-13A10AB49796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vim" sheetId="1" r:id="rId1"/>
@@ -966,10 +966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除 光标开始位置到 光标行结束位置的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:set fileencoding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,6 +987,10 @@
   </si>
   <si>
     <t>du -sh ./*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除 光标开始位置到 光标行结束位置的内容-shift+d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1714,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -1879,10 +1879,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,15 +1906,15 @@
         <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" t="s">
         <v>209</v>
-      </c>
-      <c r="B28" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF37D9D-2535-4797-8906-6B3BC18253C8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2079,7 +2079,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>125</v>
